--- a/data/ranking.xlsx
+++ b/data/ranking.xlsx
@@ -511,46 +511,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -605,46 +605,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -655,31 +655,31 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -702,13 +702,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -746,46 +746,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/ranking.xlsx
+++ b/data/ranking.xlsx
@@ -515,46 +515,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -609,46 +609,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -656,46 +656,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -703,46 +703,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/ranking.xlsx
+++ b/data/ranking.xlsx
@@ -468,46 +468,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -515,46 +515,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -562,46 +562,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -609,46 +609,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -656,46 +656,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -703,46 +703,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
